--- a/biology/Médecine/CCN_(protéine)/CCN_(protéine).xlsx
+++ b/biology/Médecine/CCN_(protéine)/CCN_(protéine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CCN_(prot%C3%A9ine)</t>
+          <t>CCN_(protéine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les protéines CCN constituent une famille de protéines de la matrice extracellulaire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CCN_(prot%C3%A9ine)</t>
+          <t>CCN_(protéine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elles jouent un rôle dans le développement embryonnaire, l'inflammation et la cicatrisation[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles jouent un rôle dans le développement embryonnaire, l'inflammation et la cicatrisation.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CCN_(prot%C3%A9ine)</t>
+          <t>CCN_(protéine)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,15 +556,17 @@
           <t>Membres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>cette famille compte six membres : 
-CCN1= CYR61 (« cysteine-rich angiogenic protein 61 »)[2]
-CCN2= CTGF (« connective tissue growth factor »)[3]
-CCN3= NOV (« nephroblastoma overexpressed »)[4]
-CCN4= WISP1 (« WNT1 inducible signaling pathway protein-1 »)[1]
-CCN5= WISP2 (« WNT1 inducible signaling pathway protein-2 »)[5]
-CCN6= WISP3 (« WNT1 inducible signaling pathway protein-3 »)[6]</t>
+CCN1= CYR61 (« cysteine-rich angiogenic protein 61 »)
+CCN2= CTGF (« connective tissue growth factor »)
+CCN3= NOV (« nephroblastoma overexpressed »)
+CCN4= WISP1 (« WNT1 inducible signaling pathway protein-1 »)
+CCN5= WISP2 (« WNT1 inducible signaling pathway protein-2 »)
+CCN6= WISP3 (« WNT1 inducible signaling pathway protein-3 »)</t>
         </is>
       </c>
     </row>
